--- a/Tiến độ.xlsx
+++ b/Tiến độ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>CHECK TIẾN ĐỘ ASSIGNMENT</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Hoàn thiện được ERD không thấy có dấu hiệu conflict. </t>
   </si>
   <si>
+    <t>Vẽ xong ERD.</t>
+  </si>
+  <si>
     <t>Deadline</t>
   </si>
 </sst>
@@ -69,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,21 +152,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -172,8 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,46 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,14 +200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +223,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -265,6 +231,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -277,8 +250,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,67 +331,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,79 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,13 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +639,50 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,54 +705,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -723,139 +713,139 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +924,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,7 +1296,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:J28"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1365,7 +1358,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1388,18 +1381,18 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="40"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4"/>
@@ -1418,18 +1411,18 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="42"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="41"/>
+      <c r="L5" s="43"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="42"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4"/>
@@ -1448,18 +1441,18 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="L6" s="42"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="41"/>
+      <c r="L6" s="43"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="42"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4"/>
@@ -1478,18 +1471,18 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="42"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
+      <c r="L7" s="43"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4"/>
@@ -1507,8 +1500,8 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="43"/>
-      <c r="L8" s="42"/>
+      <c r="J8" s="44"/>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -1526,8 +1519,8 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="43"/>
-      <c r="L9" s="42"/>
+      <c r="J9" s="44"/>
+      <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4"/>
@@ -1541,9 +1534,9 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="44"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14">
@@ -1562,7 +1555,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="L11" s="40"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14"/>
@@ -1577,7 +1570,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="L12" s="42"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14"/>
@@ -1592,7 +1585,7 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="L13" s="42"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="14"/>
@@ -1607,7 +1600,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="42"/>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14"/>
@@ -1626,7 +1619,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="L15" s="42"/>
+      <c r="L15" s="43"/>
     </row>
     <row r="16" ht="15.15" spans="1:12">
       <c r="A16" s="14"/>
@@ -1645,7 +1638,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="L16" s="42"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" ht="15.15" spans="1:12">
       <c r="A17" s="14"/>
@@ -1660,7 +1653,7 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="L17" s="45"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="21">
@@ -1679,7 +1672,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="L18" s="40"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="21"/>
@@ -1694,7 +1687,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="L19" s="42"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="21"/>
@@ -1709,7 +1702,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="L20" s="42"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="21"/>
@@ -1724,7 +1717,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="L21" s="42"/>
+      <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="21"/>
@@ -1739,7 +1732,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="L22" s="42"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" ht="15.15" spans="1:12">
       <c r="A23" s="21"/>
@@ -1754,7 +1747,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="L23" s="42"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" ht="15.15" spans="1:12">
       <c r="A24" s="21"/>
@@ -1769,7 +1762,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="L24" s="45"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="24" t="s">
@@ -1786,7 +1779,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
-      <c r="L25" s="40"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" ht="29" customHeight="1" spans="1:12">
       <c r="A26" s="24"/>
@@ -1805,7 +1798,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="L26" s="42"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24"/>
@@ -1824,22 +1817,26 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="L27" s="42"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24"/>
       <c r="B28" s="25">
         <v>44749</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>15</v>
+      </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="L28" s="42"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24"/>
@@ -1854,7 +1851,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="L29" s="42"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="24"/>
@@ -1869,7 +1866,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="L30" s="42"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24"/>
@@ -1884,116 +1881,116 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="L31" s="45"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="31">
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" ht="15.15" spans="1:12">
+      <c r="A32" s="32">
         <v>9</v>
       </c>
       <c r="B32" s="22">
         <v>44753</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="L32" s="46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="31"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="L32" s="47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:12">
+      <c r="A33" s="32"/>
       <c r="B33" s="22">
         <v>44754</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="L33" s="42"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="31"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" ht="15.15" spans="1:12">
+      <c r="A34" s="32"/>
       <c r="B34" s="22">
         <v>44755</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="L34" s="42"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="31"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" ht="15.15" spans="1:12">
+      <c r="A35" s="32"/>
       <c r="B35" s="22">
         <v>44756</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="L35" s="42"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="31"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="L35" s="43"/>
+    </row>
+    <row r="36" ht="15.15" spans="1:12">
+      <c r="A36" s="32"/>
       <c r="B36" s="22">
         <v>44757</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="L36" s="42"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="31"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" ht="15.15" spans="1:12">
+      <c r="A37" s="32"/>
       <c r="B37" s="22">
         <v>44758</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="L37" s="42"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="31"/>
-      <c r="B38" s="35">
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="L37" s="43"/>
+    </row>
+    <row r="38" ht="15.15" spans="1:12">
+      <c r="A38" s="32"/>
+      <c r="B38" s="36">
         <v>44759</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="L38" s="45"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="L38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/Tiến độ.xlsx
+++ b/Tiến độ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>CHECK TIẾN ĐỘ ASSIGNMENT</t>
   </si>
@@ -66,16 +66,19 @@
   <si>
     <t>Deadline</t>
   </si>
+  <si>
+    <t>Insert data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -146,7 +149,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,23 +195,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +218,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,71 +239,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,145 +334,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,80 +612,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +634,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -713,15 +716,15 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,117 +734,117 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,9 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,6 +938,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="34" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" xfId="40" applyBorder="1"/>
@@ -1296,7 +1299,7 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1824,7 +1827,7 @@
       <c r="B28" s="25">
         <v>44749</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="28">
         <v>2.5</v>
       </c>
       <c r="D28" s="27" t="s">
@@ -1884,101 +1887,105 @@
       <c r="L31" s="46"/>
     </row>
     <row r="32" ht="15.15" spans="1:12">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>9</v>
       </c>
       <c r="B32" s="22">
         <v>44753</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
       <c r="L32" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:12">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="22">
         <v>44754</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
       <c r="L33" s="43"/>
     </row>
     <row r="34" ht="15.15" spans="1:12">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="22">
         <v>44755</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="32">
+        <v>3</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
       <c r="L34" s="43"/>
     </row>
     <row r="35" ht="15.15" spans="1:12">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="22">
         <v>44756</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" ht="15.15" spans="1:12">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="22">
         <v>44757</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
       <c r="L36" s="43"/>
     </row>
     <row r="37" ht="15.15" spans="1:12">
-      <c r="A37" s="32"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="22">
         <v>44758</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
       <c r="L37" s="43"/>
     </row>
     <row r="38" ht="15.15" spans="1:12">
-      <c r="A38" s="32"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="36">
         <v>44759</v>
       </c>

--- a/Tiến độ.xlsx
+++ b/Tiến độ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>CHECK TIẾN ĐỘ ASSIGNMENT</t>
   </si>
@@ -69,14 +69,17 @@
   <si>
     <t>Insert data</t>
   </si>
+  <si>
+    <t>Insert data more, tạm thời hoàn thiện data không bị conflict.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -149,14 +152,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,32 +236,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,75 +275,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,145 +337,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,16 +619,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -655,6 +669,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -670,37 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,7 +719,7 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,117 +737,117 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1910,8 +1913,12 @@
       <c r="B33" s="22">
         <v>44754</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="32">
+        <v>3</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -1929,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>

--- a/Tiến độ.xlsx
+++ b/Tiến độ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>CHECK TIẾN ĐỘ ASSIGNMENT</t>
   </si>
@@ -64,6 +64,9 @@
     <t>Vẽ xong ERD.</t>
   </si>
   <si>
+    <t>Viết report</t>
+  </si>
+  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -71,17 +74,24 @@
   </si>
   <si>
     <t>Insert data more, tạm thời hoàn thiện data không bị conflict.</t>
+  </si>
+  <si>
+    <t>Conflict data, thêm table, sửa dữ liệu</t>
+  </si>
+  <si>
+    <t>Viết query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -151,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,24 +184,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,45 +263,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,43 +353,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,60 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,30 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +636,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,15 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -707,27 +726,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,121 +747,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,6 +941,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,7 +960,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="1" xfId="40" applyBorder="1"/>
-    <xf numFmtId="58" fontId="7" fillId="9" borderId="1" xfId="40" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="7" fillId="9" borderId="5" xfId="40" applyBorder="1" applyAlignment="1">
@@ -1301,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1364,7 +1377,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="41" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1387,18 +1400,18 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="4"/>
@@ -1417,18 +1430,18 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="L5" s="43"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="42"/>
+      <c r="L5" s="44"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="43"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="4"/>
@@ -1447,18 +1460,18 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="L6" s="43"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="42"/>
+      <c r="L6" s="44"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="43"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="4"/>
@@ -1477,18 +1490,18 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="L7" s="43"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
+      <c r="L7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4"/>
@@ -1496,7 +1509,7 @@
         <v>44729</v>
       </c>
       <c r="C8" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
@@ -1506,8 +1519,8 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="43"/>
+      <c r="J8" s="45"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4"/>
@@ -1525,8 +1538,8 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="43"/>
+      <c r="J9" s="45"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4"/>
@@ -1540,9 +1553,9 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="45"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="46"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14">
@@ -1561,7 +1574,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="L11" s="41"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14"/>
@@ -1576,7 +1589,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="L12" s="43"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="14"/>
@@ -1591,7 +1604,7 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="L13" s="43"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="14"/>
@@ -1606,7 +1619,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14"/>
@@ -1614,7 +1627,7 @@
         <v>44736</v>
       </c>
       <c r="C15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>10</v>
@@ -1625,15 +1638,15 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" ht="15.15" spans="1:12">
+      <c r="L15" s="44"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="14"/>
       <c r="B16" s="15">
         <v>44737</v>
       </c>
       <c r="C16" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>11</v>
@@ -1644,7 +1657,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="L16" s="43"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" ht="15.15" spans="1:12">
       <c r="A17" s="14"/>
@@ -1659,7 +1672,7 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="L17" s="46"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="21">
@@ -1678,7 +1691,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="L18" s="41"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="21"/>
@@ -1693,7 +1706,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="L19" s="43"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="21"/>
@@ -1708,7 +1721,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="L20" s="43"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="21"/>
@@ -1723,7 +1736,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="L21" s="43"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="21"/>
@@ -1738,7 +1751,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="L22" s="43"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" ht="15.15" spans="1:12">
       <c r="A23" s="21"/>
@@ -1753,7 +1766,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="L23" s="43"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" ht="15.15" spans="1:12">
       <c r="A24" s="21"/>
@@ -1768,7 +1781,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
-      <c r="L24" s="46"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="24" t="s">
@@ -1785,7 +1798,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
-      <c r="L25" s="41"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" ht="29" customHeight="1" spans="1:12">
       <c r="A26" s="24"/>
@@ -1804,7 +1817,7 @@
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="L26" s="43"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24"/>
@@ -1823,7 +1836,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
-      <c r="L27" s="43"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24"/>
@@ -1842,37 +1855,45 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
-      <c r="L28" s="43"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24"/>
       <c r="B29" s="25">
         <v>44750</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="31">
+        <v>2</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
-      <c r="L29" s="43"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="24"/>
       <c r="B30" s="25">
         <v>44751</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="31">
+        <v>3</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
-      <c r="L30" s="43"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="24"/>
@@ -1887,124 +1908,139 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
-      <c r="L31" s="46"/>
+      <c r="L31" s="47"/>
     </row>
     <row r="32" ht="15.15" spans="1:12">
-      <c r="A32" s="31">
+      <c r="A32" s="32">
         <v>9</v>
       </c>
       <c r="B32" s="22">
         <v>44753</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="L32" s="47" t="s">
-        <v>16</v>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="L32" s="48" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:12">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="22">
         <v>44754</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="33">
         <v>3</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="L33" s="43"/>
+      <c r="D33" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" ht="15.15" spans="1:12">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="22">
         <v>44755</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="33">
         <v>3</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="L34" s="43"/>
+      <c r="D34" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" ht="15.15" spans="1:12">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="22">
         <v>44756</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="L35" s="43"/>
+      <c r="C35" s="33">
+        <v>2</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="L35" s="44"/>
     </row>
     <row r="36" ht="15.15" spans="1:12">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="22">
         <v>44757</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="L36" s="43"/>
+      <c r="C36" s="33">
+        <v>2</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" ht="15.15" spans="1:12">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="22">
         <v>44758</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="L37" s="43"/>
+      <c r="C37" s="33">
+        <v>5</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" ht="15.15" spans="1:12">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36">
+      <c r="A38" s="32"/>
+      <c r="B38" s="37">
         <v>44759</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="L38" s="46"/>
+      <c r="C38" s="38">
+        <f>SUM(C4:D37)</f>
+        <v>38.5</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="L38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/Tiến độ.xlsx
+++ b/Tiến độ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>CHECK TIẾN ĐỘ ASSIGNMENT</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Viết query</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Total hour</t>
   </si>
 </sst>
 </file>
@@ -87,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -161,54 +167,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +213,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -261,6 +252,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -270,12 +268,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -290,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,151 +347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,35 +637,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,6 +680,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -726,18 +718,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,117 +759,117 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="10" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="9" borderId="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -941,9 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,15 +968,18 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="9" borderId="1" xfId="40" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="9" borderId="1" xfId="40" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="9" borderId="5" xfId="40" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="9" borderId="6" xfId="40" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="10" borderId="1" xfId="40" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="9" borderId="5" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="58" fontId="7" fillId="9" borderId="6" xfId="40" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1312,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1640,7 +1652,7 @@
       <c r="J15" s="18"/>
       <c r="L15" s="44"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" ht="15.15" spans="1:12">
       <c r="A16" s="14"/>
       <c r="B16" s="15">
         <v>44737</v>
@@ -1862,7 +1874,7 @@
       <c r="B29" s="25">
         <v>44750</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>2</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -1881,7 +1893,7 @@
       <c r="B30" s="25">
         <v>44751</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>3</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -1910,137 +1922,147 @@
       <c r="J31" s="27"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" ht="15.15" spans="1:12">
-      <c r="A32" s="32">
+    <row r="32" spans="1:12">
+      <c r="A32" s="31">
         <v>9</v>
       </c>
       <c r="B32" s="22">
         <v>44753</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
       <c r="L32" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="1:12">
-      <c r="A33" s="32"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="22">
         <v>44754</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <v>3</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
       <c r="L33" s="44"/>
     </row>
     <row r="34" ht="15.15" spans="1:12">
-      <c r="A34" s="32"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="22">
         <v>44755</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="32">
         <v>3</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
       <c r="L34" s="44"/>
     </row>
     <row r="35" ht="15.15" spans="1:12">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="22">
         <v>44756</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <v>2</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
       <c r="L35" s="44"/>
     </row>
     <row r="36" ht="15.15" spans="1:12">
-      <c r="A36" s="32"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="22">
         <v>44757</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="32">
         <v>2</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
       <c r="L36" s="44"/>
     </row>
     <row r="37" ht="15.15" spans="1:12">
-      <c r="A37" s="32"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="22">
         <v>44758</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="32">
         <v>5</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
       <c r="L37" s="44"/>
     </row>
     <row r="38" ht="15.15" spans="1:12">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37">
+      <c r="A38" s="31"/>
+      <c r="B38" s="36">
         <v>44759</v>
       </c>
-      <c r="C38" s="38">
-        <f>SUM(C4:D37)</f>
-        <v>38.5</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="C38" s="37">
+        <v>2</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="L38" s="47"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="40">
+        <f>SUM(C4:C38)</f>
+        <v>40.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="38">
